--- a/exel/HW/02_06_2022/task2.xlsx
+++ b/exel/HW/02_06_2022/task2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,41 +518,6 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>а_14</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>а_15</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>а_16</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>а_17</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>а_18</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>а_19</t>
         </is>
       </c>
     </row>
